--- a/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C206182-17F7-4415-BD20-0F27523D74D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE63D23-D7BC-4133-816B-4A1755D35AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A44E26E2-5CA8-4C23-950A-99106FC01A05}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBE7A102-0245-471D-B2B0-357CAFA45F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="496">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -218,1195 +218,1222 @@
     <t>55,31%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>78,37%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>5,82%</t>
+    <t>5,92%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>58,1%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
   </si>
   <si>
     <t>64,55%</t>
   </si>
   <si>
-    <t>63,49%</t>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>9,06%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -1415,28 +1442,25 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>13,5%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1914,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D37A51-C605-480A-85B7-5DF69FF84205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C679F-E5AA-45C3-886F-7E98EECB7C56}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3656,7 +3680,7 @@
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>17</v>
@@ -3860,7 +3884,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -3895,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B42BE8-8DD3-4DB0-90D5-F38CEF4D1412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508022A-7FFC-4E24-AC45-4CB6C14C8526}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4495,13 +4519,13 @@
         <v>21021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4510,13 +4534,13 @@
         <v>52122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4555,13 @@
         <v>155773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -4546,13 +4570,13 @@
         <v>91617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>236</v>
@@ -4561,13 +4585,13 @@
         <v>247391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4656,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4686,13 +4710,13 @@
         <v>619784</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>707</v>
@@ -4701,13 +4725,13 @@
         <v>774332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>1277</v>
@@ -4716,13 +4740,13 @@
         <v>1394116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4761,13 @@
         <v>57457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -4752,13 +4776,13 @@
         <v>41898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -4767,13 +4791,13 @@
         <v>99356</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4812,13 @@
         <v>50725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4803,13 +4827,13 @@
         <v>43518</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4818,13 +4842,13 @@
         <v>94243</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4863,13 @@
         <v>289981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4854,13 +4878,13 @@
         <v>172436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>424</v>
@@ -4869,13 +4893,13 @@
         <v>462416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4994,13 +5018,13 @@
         <v>449914</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -5009,13 +5033,13 @@
         <v>572655</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>932</v>
@@ -5024,13 +5048,13 @@
         <v>1022569</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5069,13 @@
         <v>42108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5060,13 +5084,13 @@
         <v>37989</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
@@ -5075,13 +5099,13 @@
         <v>80097</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5120,13 @@
         <v>48420</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5111,13 +5135,13 @@
         <v>34069</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -5126,13 +5150,13 @@
         <v>82489</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5171,13 @@
         <v>217181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -5162,13 +5186,13 @@
         <v>132460</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
@@ -5177,13 +5201,13 @@
         <v>349642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5326,13 @@
         <v>541700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>728</v>
@@ -5317,13 +5341,13 @@
         <v>764252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>1245</v>
@@ -5332,13 +5356,13 @@
         <v>1305952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5377,13 @@
         <v>52208</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -5368,13 +5392,13 @@
         <v>54800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -5383,13 +5407,13 @@
         <v>107008</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5428,13 @@
         <v>76163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -5419,13 +5443,13 @@
         <v>56145</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -5434,13 +5458,13 @@
         <v>132308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5479,13 @@
         <v>277668</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>170</v>
@@ -5470,13 +5494,13 @@
         <v>176704</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>438</v>
@@ -5485,13 +5509,13 @@
         <v>454372</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5634,13 @@
         <v>2047887</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>2463</v>
@@ -5625,13 +5649,13 @@
         <v>2653726</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>4376</v>
@@ -5640,13 +5664,13 @@
         <v>4701612</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5685,13 @@
         <v>184033</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -5676,13 +5700,13 @@
         <v>154458</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>309</v>
@@ -5691,13 +5715,13 @@
         <v>338491</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5736,13 @@
         <v>215180</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>149</v>
@@ -5727,13 +5751,13 @@
         <v>158026</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>351</v>
@@ -5742,10 +5766,10 @@
         <v>373205</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>254</v>
@@ -5769,7 +5793,7 @@
         <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="H38" s="7">
         <v>548</v>
@@ -5778,13 +5802,13 @@
         <v>592100</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>1471</v>
@@ -5793,13 +5817,13 @@
         <v>1571779</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5A55D8-CF2F-43B0-98D9-2D0A84C59198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E8C875-A2EC-4F00-8221-7AF12F61F4C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5893,7 +5917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6006,37 +6030,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6075,13 @@
         <v>72525</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -6066,13 +6090,13 @@
         <v>83469</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6081,13 +6105,13 @@
         <v>155994</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6126,13 @@
         <v>8157</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6117,13 +6141,13 @@
         <v>4328</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -6132,13 +6156,13 @@
         <v>12486</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6177,13 @@
         <v>4972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -6168,13 +6192,13 @@
         <v>6643</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -6183,10 +6207,10 @@
         <v>11615</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>291</v>
@@ -6204,7 +6228,7 @@
         <v>30892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>292</v>
@@ -6464,10 +6488,10 @@
         <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -6476,10 +6500,10 @@
         <v>30904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>324</v>
@@ -6491,13 +6515,13 @@
         <v>69844</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,10 +6536,10 @@
         <v>111383</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>329</v>
@@ -6530,10 +6554,10 @@
         <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -6542,13 +6566,13 @@
         <v>174081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,7 +6646,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6637,7 +6661,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6667,13 +6691,13 @@
         <v>608390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>710</v>
@@ -6682,13 +6706,13 @@
         <v>769142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>1289</v>
@@ -6697,13 +6721,13 @@
         <v>1377532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6742,13 @@
         <v>89723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -6733,13 +6757,13 @@
         <v>68206</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M18" s="7">
         <v>149</v>
@@ -6748,13 +6772,13 @@
         <v>157929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6793,13 @@
         <v>89984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -6784,13 +6808,13 @@
         <v>64371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -6799,13 +6823,13 @@
         <v>154354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6844,13 @@
         <v>234334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -6835,13 +6859,13 @@
         <v>141194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -6850,13 +6874,13 @@
         <v>375528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,7 +6969,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6960,7 +6984,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6999,13 @@
         <v>395732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>471</v>
@@ -6990,13 +7014,13 @@
         <v>514453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -7005,13 +7029,13 @@
         <v>910185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7050,13 @@
         <v>123926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>95</v>
@@ -7041,13 +7065,13 @@
         <v>95242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -7056,13 +7080,13 @@
         <v>219168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7101,13 @@
         <v>92958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -7092,13 +7116,13 @@
         <v>62889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -7107,13 +7131,13 @@
         <v>155847</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7152,13 @@
         <v>146936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -7143,13 +7167,13 @@
         <v>112427</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -7158,13 +7182,13 @@
         <v>259362</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,7 +7277,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7283,13 +7307,13 @@
         <v>536396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>652</v>
@@ -7298,13 +7322,13 @@
         <v>718305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M29" s="7">
         <v>1191</v>
@@ -7313,13 +7337,13 @@
         <v>1254701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7358,13 @@
         <v>72843</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H30" s="7">
         <v>81</v>
@@ -7349,13 +7373,13 @@
         <v>86035</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -7364,13 +7388,13 @@
         <v>158878</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7409,13 @@
         <v>77369</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H31" s="7">
         <v>55</v>
@@ -7400,13 +7424,13 @@
         <v>57261</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M31" s="7">
         <v>133</v>
@@ -7415,13 +7439,13 @@
         <v>134630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7460,13 @@
         <v>250959</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H32" s="7">
         <v>171</v>
@@ -7451,13 +7475,13 @@
         <v>182178</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>416</v>
@@ -7466,13 +7490,13 @@
         <v>433137</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7615,13 @@
         <v>1972028</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H35" s="7">
         <v>2325</v>
@@ -7606,13 +7630,13 @@
         <v>2507370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>439</v>
+        <v>171</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M35" s="7">
         <v>4233</v>
@@ -7621,13 +7645,13 @@
         <v>4479398</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7666,13 @@
         <v>343595</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="H36" s="7">
         <v>293</v>
@@ -7657,13 +7681,13 @@
         <v>297688</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M36" s="7">
         <v>606</v>
@@ -7672,13 +7696,13 @@
         <v>641283</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7717,13 @@
         <v>304222</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -7708,13 +7732,13 @@
         <v>222067</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>143</v>
+        <v>463</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="M37" s="7">
         <v>505</v>
@@ -7726,10 +7750,10 @@
         <v>75</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>455</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7768,13 @@
         <v>774505</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H38" s="7">
         <v>501</v>
@@ -7759,13 +7783,13 @@
         <v>517416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="M38" s="7">
         <v>1225</v>
@@ -7774,13 +7798,13 @@
         <v>1291921</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,7 +7881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AA1F67-5417-46C2-919D-DE807527E283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B399D6C-F681-4FA8-A36E-5DA88BA728F3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7874,7 +7898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7984,7 +8008,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -7999,7 +8023,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -8014,7 +8038,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -8038,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8053,7 +8077,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8068,7 +8092,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8113,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8104,7 +8128,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8119,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,7 +8164,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8155,7 +8179,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8170,7 +8194,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,7 +8215,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8206,7 +8230,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8221,7 +8245,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,7 +8316,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -8322,7 +8346,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -8346,7 +8370,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8376,7 +8400,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,7 +8421,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8427,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8478,7 +8502,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8529,7 +8553,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,7 +8624,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -8615,7 +8639,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -8630,7 +8654,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -8654,7 +8678,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8669,7 +8693,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8684,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,7 +8729,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8720,7 +8744,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8735,7 +8759,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,7 +8780,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8771,7 +8795,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8786,7 +8810,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8822,7 +8846,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8837,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,7 +8947,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -9231,7 +9255,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -9246,7 +9270,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -9285,7 +9309,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9300,7 +9324,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,7 +9360,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9351,7 +9375,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9387,7 +9411,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9402,7 +9426,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9438,7 +9462,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9453,7 +9477,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,7 +9563,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -9554,7 +9578,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -9593,7 +9617,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9608,7 +9632,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,7 +9668,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9659,7 +9683,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9695,7 +9719,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9710,7 +9734,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9746,7 +9770,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9761,7 +9785,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE63D23-D7BC-4133-816B-4A1755D35AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC238211-5119-43F0-8673-EC676F7D73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBE7A102-0245-471D-B2B0-357CAFA45F5E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD7A1F19-5629-4BA4-BFAD-68A78A85908C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="494">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -116,7 +116,7 @@
     <t>VERDE</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -137,7 +137,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -152,7 +152,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -218,1249 +218,1243 @@
     <t>55,31%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>78,37%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>24,4%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>13,5%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1938,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C679F-E5AA-45C3-886F-7E98EECB7C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600A5B4A-ED94-43A8-8DA3-50EB495F88A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3650,7 +3644,7 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -3854,7 +3848,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -3919,7 +3913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508022A-7FFC-4E24-AC45-4CB6C14C8526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C42D628-8FB4-4EFE-8E68-12848A5F4F4B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4226,13 +4220,13 @@
         <v>12044</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4241,13 @@
         <v>39076</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4262,13 +4256,13 @@
         <v>18882</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4277,13 +4271,13 @@
         <v>57958</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4372,7 +4366,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4402,13 +4396,13 @@
         <v>372455</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>428</v>
@@ -4417,13 +4411,13 @@
         <v>454792</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>776</v>
@@ -4432,13 +4426,13 @@
         <v>827247</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4447,13 @@
         <v>28375</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4468,13 +4462,13 @@
         <v>17715</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4483,13 +4477,13 @@
         <v>46090</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4498,13 @@
         <v>31100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4519,13 +4513,13 @@
         <v>21021</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4534,13 +4528,13 @@
         <v>52122</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4549,13 @@
         <v>155773</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -4570,13 +4564,13 @@
         <v>91617</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>236</v>
@@ -4585,13 +4579,13 @@
         <v>247391</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4680,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4710,13 +4704,13 @@
         <v>619784</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>707</v>
@@ -4725,13 +4719,13 @@
         <v>774332</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>1277</v>
@@ -4740,13 +4734,13 @@
         <v>1394116</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4755,13 @@
         <v>57457</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -4776,13 +4770,13 @@
         <v>41898</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -4791,13 +4785,13 @@
         <v>99356</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4806,13 @@
         <v>50725</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4827,13 +4821,13 @@
         <v>43518</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4842,13 +4836,13 @@
         <v>94243</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4857,13 @@
         <v>289981</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4878,13 +4872,13 @@
         <v>172436</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>424</v>
@@ -4893,13 +4887,13 @@
         <v>462416</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,7 +4982,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5018,13 +5012,13 @@
         <v>449914</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -5033,13 +5027,13 @@
         <v>572655</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>932</v>
@@ -5048,13 +5042,13 @@
         <v>1022569</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,10 +5063,10 @@
         <v>42108</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>177</v>
@@ -5138,10 +5132,10 @@
         <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -5150,13 +5144,13 @@
         <v>82489</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5165,13 @@
         <v>217181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -5186,13 +5180,13 @@
         <v>132460</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
@@ -5201,13 +5195,13 @@
         <v>349642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5320,13 @@
         <v>541700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>728</v>
@@ -5341,13 +5335,13 @@
         <v>764252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>1245</v>
@@ -5356,13 +5350,13 @@
         <v>1305952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5371,13 @@
         <v>52208</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -5392,13 +5386,13 @@
         <v>54800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -5407,13 +5401,13 @@
         <v>107008</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5422,13 @@
         <v>76163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -5443,13 +5437,13 @@
         <v>56145</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -5458,13 +5452,13 @@
         <v>132308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5473,13 @@
         <v>277668</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>170</v>
@@ -5494,13 +5488,13 @@
         <v>176704</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>438</v>
@@ -5509,13 +5503,13 @@
         <v>454372</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5628,13 @@
         <v>2047887</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>2463</v>
@@ -5649,13 +5643,13 @@
         <v>2653726</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>4376</v>
@@ -5664,13 +5658,13 @@
         <v>4701612</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5679,13 @@
         <v>184033</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -5700,13 +5694,13 @@
         <v>154458</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>309</v>
@@ -5715,13 +5709,13 @@
         <v>338491</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5730,13 @@
         <v>215180</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>149</v>
@@ -5751,13 +5745,13 @@
         <v>158026</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>351</v>
@@ -5766,13 +5760,13 @@
         <v>373205</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5781,13 @@
         <v>979680</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="H38" s="7">
         <v>548</v>
@@ -5802,13 +5796,13 @@
         <v>592100</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7">
         <v>1471</v>
@@ -5817,13 +5811,13 @@
         <v>1571779</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E8C875-A2EC-4F00-8221-7AF12F61F4C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A571165-8850-4E81-8231-1E25A10C5042}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5917,7 +5911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6030,7 +6024,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6045,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6060,7 +6054,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6069,13 @@
         <v>72525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -6090,13 +6084,13 @@
         <v>83469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6105,13 +6099,13 @@
         <v>155994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6120,13 @@
         <v>8157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6141,13 +6135,13 @@
         <v>4328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -6156,13 +6150,13 @@
         <v>12486</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6171,13 @@
         <v>4972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -6192,13 +6186,13 @@
         <v>6643</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -6207,13 +6201,13 @@
         <v>11615</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6222,13 @@
         <v>30892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -6243,13 +6237,13 @@
         <v>18919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -6258,13 +6252,13 @@
         <v>49812</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6353,7 +6347,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6368,7 +6362,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6377,13 @@
         <v>358985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -6398,13 +6392,13 @@
         <v>422001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -6413,13 +6407,13 @@
         <v>780986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6428,13 @@
         <v>48946</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -6449,13 +6443,13 @@
         <v>43877</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -6464,13 +6458,13 @@
         <v>92822</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6479,13 @@
         <v>38940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -6500,13 +6494,13 @@
         <v>30904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -6515,13 +6509,13 @@
         <v>69844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6530,13 @@
         <v>111383</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -6551,13 +6545,13 @@
         <v>62698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -6566,13 +6560,13 @@
         <v>174081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6661,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6691,13 +6685,13 @@
         <v>608390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>710</v>
@@ -6706,13 +6700,13 @@
         <v>769142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>1289</v>
@@ -6721,13 +6715,13 @@
         <v>1377532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6736,13 @@
         <v>89723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -6757,13 +6751,13 @@
         <v>68206</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>149</v>
@@ -6772,13 +6766,13 @@
         <v>157929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>352</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6787,13 @@
         <v>89984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -6808,13 +6802,13 @@
         <v>64371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -6823,13 +6817,13 @@
         <v>154354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6838,13 @@
         <v>234334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -6859,13 +6853,13 @@
         <v>141194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -6874,13 +6868,13 @@
         <v>375528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,7 +6963,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6984,7 +6978,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +6993,13 @@
         <v>395732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>471</v>
@@ -7014,13 +7008,13 @@
         <v>514453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -7029,13 +7023,13 @@
         <v>910185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7044,13 @@
         <v>123926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H24" s="7">
         <v>95</v>
@@ -7065,13 +7059,13 @@
         <v>95242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -7080,13 +7074,13 @@
         <v>219168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7095,13 @@
         <v>92958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -7116,13 +7110,13 @@
         <v>62889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -7131,13 +7125,13 @@
         <v>155847</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7146,13 @@
         <v>146936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -7167,13 +7161,13 @@
         <v>112427</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -7182,13 +7176,13 @@
         <v>259362</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7307,13 +7301,13 @@
         <v>536396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H29" s="7">
         <v>652</v>
@@ -7322,13 +7316,13 @@
         <v>718305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>1191</v>
@@ -7337,13 +7331,13 @@
         <v>1254701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7352,13 @@
         <v>72843</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H30" s="7">
         <v>81</v>
@@ -7373,10 +7367,10 @@
         <v>86035</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>422</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>423</v>
@@ -7391,10 +7385,10 @@
         <v>424</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7403,13 @@
         <v>77369</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H31" s="7">
         <v>55</v>
@@ -7424,13 +7418,13 @@
         <v>57261</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M31" s="7">
         <v>133</v>
@@ -7439,13 +7433,13 @@
         <v>134630</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7454,13 @@
         <v>250959</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H32" s="7">
         <v>171</v>
@@ -7475,13 +7469,13 @@
         <v>182178</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>440</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>416</v>
@@ -7490,13 +7484,13 @@
         <v>433137</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7609,13 @@
         <v>1972028</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H35" s="7">
         <v>2325</v>
@@ -7630,13 +7624,13 @@
         <v>2507370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>171</v>
+        <v>444</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M35" s="7">
         <v>4233</v>
@@ -7645,13 +7639,13 @@
         <v>4479398</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7660,13 @@
         <v>343595</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H36" s="7">
         <v>293</v>
@@ -7681,13 +7675,13 @@
         <v>297688</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M36" s="7">
         <v>606</v>
@@ -7696,13 +7690,13 @@
         <v>641283</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7711,13 @@
         <v>304222</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>331</v>
+        <v>458</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -7732,13 +7726,13 @@
         <v>222067</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>462</v>
+        <v>189</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>463</v>
+        <v>143</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M37" s="7">
         <v>505</v>
@@ -7750,10 +7744,10 @@
         <v>75</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>462</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7762,13 @@
         <v>774505</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>467</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H38" s="7">
         <v>501</v>
@@ -7783,13 +7777,13 @@
         <v>517416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>367</v>
+        <v>468</v>
       </c>
       <c r="M38" s="7">
         <v>1225</v>
@@ -7798,13 +7792,13 @@
         <v>1291921</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,7 +7875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B399D6C-F681-4FA8-A36E-5DA88BA728F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111F78A-AB0A-44BA-B342-891C4BDF3B9B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7898,7 +7892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8008,7 +8002,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -8023,7 +8017,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -8038,7 +8032,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -8062,37 +8056,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,37 +8107,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,37 +8158,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,37 +8209,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,7 +8310,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -8346,7 +8340,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -8370,7 +8364,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8400,7 +8394,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,7 +8415,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8451,7 +8445,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,7 +8466,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8502,7 +8496,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8553,7 +8547,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,7 +8618,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -8639,7 +8633,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -8654,7 +8648,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -8678,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8693,7 +8687,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8708,7 +8702,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8729,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8744,7 +8738,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8759,7 +8753,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8780,7 +8774,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8795,7 +8789,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8810,7 +8804,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8831,7 +8825,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8846,7 +8840,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8861,7 +8855,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8947,7 +8941,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -9001,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9052,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9103,7 +9097,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9154,7 +9148,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9255,7 +9249,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -9270,7 +9264,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -9309,7 +9303,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9324,7 +9318,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,7 +9354,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9375,7 +9369,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,7 +9405,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9426,7 +9420,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9462,7 +9456,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9477,7 +9471,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9563,7 +9557,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -9572,13 +9566,13 @@
         <v>8743</v>
       </c>
       <c r="N34" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -9617,7 +9611,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9632,7 +9626,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,7 +9662,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9683,7 +9677,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9719,7 +9713,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9734,7 +9728,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,7 +9764,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9785,7 +9779,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,7 +9821,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC238211-5119-43F0-8673-EC676F7D73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CED6B46-5B1C-4BAA-A7C6-59ACF6FF2AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD7A1F19-5629-4BA4-BFAD-68A78A85908C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5BF7C5A-1E37-4389-9EDE-A21610FA1707}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="488">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -218,28 +218,28 @@
     <t>55,31%</t>
   </si>
   <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
   </si>
   <si>
     <t>78,37%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -248,1213 +248,1195 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>8,53%</t>
+    <t>8,98%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>24,4%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1932,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600A5B4A-ED94-43A8-8DA3-50EB495F88A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C056FFEF-44AD-4E17-BEFD-685AE35DD84B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3644,7 +3626,7 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -3674,7 +3656,7 @@
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>17</v>
@@ -3848,7 +3830,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -3878,7 +3860,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -3913,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C42D628-8FB4-4EFE-8E68-12848A5F4F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517D4D4-02D2-40CB-814D-E30778F3B72C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4220,13 +4202,13 @@
         <v>12044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4223,13 @@
         <v>39076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4256,13 +4238,13 @@
         <v>18882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4271,13 +4253,13 @@
         <v>57958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4366,7 +4348,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4396,13 +4378,13 @@
         <v>372455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>428</v>
@@ -4411,13 +4393,13 @@
         <v>454792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>776</v>
@@ -4426,13 +4408,13 @@
         <v>827247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4429,13 @@
         <v>28375</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4462,13 +4444,13 @@
         <v>17715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -4477,13 +4459,13 @@
         <v>46090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4480,13 @@
         <v>31100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4513,7 +4495,7 @@
         <v>21021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>114</v>
@@ -4791,7 +4773,7 @@
         <v>145</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4788,13 @@
         <v>50725</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4821,13 +4803,13 @@
         <v>43518</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4836,13 +4818,13 @@
         <v>94243</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4839,13 @@
         <v>289981</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4872,13 +4854,13 @@
         <v>172436</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>424</v>
@@ -4887,13 +4869,13 @@
         <v>462416</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5012,13 +4994,13 @@
         <v>449914</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>522</v>
@@ -5027,13 +5009,13 @@
         <v>572655</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>932</v>
@@ -5042,13 +5024,13 @@
         <v>1022569</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5045,13 @@
         <v>42108</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5078,13 +5060,13 @@
         <v>37989</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
@@ -5093,13 +5075,13 @@
         <v>80097</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5096,13 @@
         <v>48420</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5129,13 +5111,13 @@
         <v>34069</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -5144,13 +5126,13 @@
         <v>82489</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5147,13 @@
         <v>217181</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -5180,13 +5162,13 @@
         <v>132460</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>316</v>
@@ -5195,13 +5177,13 @@
         <v>349642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5302,13 @@
         <v>541700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>728</v>
@@ -5335,13 +5317,13 @@
         <v>764252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>1245</v>
@@ -5350,13 +5332,13 @@
         <v>1305952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5353,13 @@
         <v>52208</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -5386,13 +5368,13 @@
         <v>54800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>100</v>
@@ -5401,13 +5383,13 @@
         <v>107008</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5404,13 @@
         <v>76163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -5437,13 +5419,13 @@
         <v>56145</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -5452,13 +5434,13 @@
         <v>132308</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5455,13 @@
         <v>277668</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>170</v>
@@ -5488,13 +5470,13 @@
         <v>176704</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>438</v>
@@ -5503,13 +5485,13 @@
         <v>454372</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5610,13 @@
         <v>2047887</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>2463</v>
@@ -5643,13 +5625,13 @@
         <v>2653726</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>4376</v>
@@ -5658,13 +5640,13 @@
         <v>4701612</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5661,13 @@
         <v>184033</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>138</v>
@@ -5694,13 +5676,13 @@
         <v>154458</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>309</v>
@@ -5712,10 +5694,10 @@
         <v>144</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5712,13 @@
         <v>215180</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>149</v>
@@ -5748,10 +5730,10 @@
         <v>116</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M37" s="7">
         <v>351</v>
@@ -5760,13 +5742,13 @@
         <v>373205</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5763,13 @@
         <v>979680</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>548</v>
@@ -5796,13 +5778,13 @@
         <v>592100</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>1471</v>
@@ -5811,13 +5793,13 @@
         <v>1571779</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A571165-8850-4E81-8231-1E25A10C5042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F594A9EA-D4E7-4693-A688-C716F6E86546}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5911,7 +5893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6024,7 +6006,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6039,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6054,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6051,13 @@
         <v>72525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -6084,13 +6066,13 @@
         <v>83469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6099,13 +6081,13 @@
         <v>155994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6102,13 @@
         <v>8157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6135,13 +6117,13 @@
         <v>4328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -6150,13 +6132,13 @@
         <v>12486</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6153,13 @@
         <v>4972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -6186,13 +6168,13 @@
         <v>6643</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -6201,13 +6183,13 @@
         <v>11615</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,10 +6207,10 @@
         <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -6237,13 +6219,13 @@
         <v>18919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -6252,13 +6234,13 @@
         <v>49812</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6347,7 +6329,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6362,7 +6344,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6359,13 @@
         <v>358985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -6392,13 +6374,13 @@
         <v>422001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -6407,13 +6389,13 @@
         <v>780986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6410,13 @@
         <v>48946</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -6443,13 +6425,13 @@
         <v>43877</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>90</v>
@@ -6458,13 +6440,13 @@
         <v>92822</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6461,13 @@
         <v>38940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -6494,13 +6476,13 @@
         <v>30904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -6509,13 +6491,13 @@
         <v>69844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6512,13 @@
         <v>111383</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -6545,13 +6527,13 @@
         <v>62698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -6560,13 +6542,13 @@
         <v>174081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6667,13 @@
         <v>608390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>710</v>
@@ -6700,13 +6682,13 @@
         <v>769142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
         <v>1289</v>
@@ -6715,13 +6697,13 @@
         <v>1377532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6718,13 @@
         <v>89723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -6751,13 +6733,13 @@
         <v>68206</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M18" s="7">
         <v>149</v>
@@ -6766,13 +6748,13 @@
         <v>157929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6769,13 @@
         <v>89984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -6802,13 +6784,13 @@
         <v>64371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -6817,13 +6799,13 @@
         <v>154354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>365</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6820,13 @@
         <v>234334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -6853,13 +6835,13 @@
         <v>141194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -6868,13 +6850,13 @@
         <v>375528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>373</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,7 +6945,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6978,7 +6960,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +6975,13 @@
         <v>395732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>471</v>
@@ -7008,13 +6990,13 @@
         <v>514453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -7023,13 +7005,13 @@
         <v>910185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7026,13 @@
         <v>123926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>95</v>
@@ -7059,13 +7041,13 @@
         <v>95242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -7074,13 +7056,13 @@
         <v>219168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7077,13 @@
         <v>92958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -7110,13 +7092,13 @@
         <v>62889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -7125,13 +7107,13 @@
         <v>155847</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7128,13 @@
         <v>146936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -7161,13 +7143,13 @@
         <v>112427</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -7176,13 +7158,13 @@
         <v>259362</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7283,13 @@
         <v>536396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>652</v>
@@ -7316,13 +7298,13 @@
         <v>718305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>1191</v>
@@ -7331,13 +7313,13 @@
         <v>1254701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7334,13 @@
         <v>72843</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>419</v>
+        <v>222</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>81</v>
@@ -7367,13 +7349,13 @@
         <v>86035</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -7382,13 +7364,13 @@
         <v>158878</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>322</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>425</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7385,13 @@
         <v>77369</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>427</v>
+        <v>318</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H31" s="7">
         <v>55</v>
@@ -7418,13 +7400,13 @@
         <v>57261</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M31" s="7">
         <v>133</v>
@@ -7433,13 +7415,13 @@
         <v>134630</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7436,13 @@
         <v>250959</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>171</v>
@@ -7469,13 +7451,13 @@
         <v>182178</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>416</v>
@@ -7484,13 +7466,13 @@
         <v>433137</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7591,13 @@
         <v>1972028</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>342</v>
+        <v>437</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H35" s="7">
         <v>2325</v>
@@ -7624,13 +7606,13 @@
         <v>2507370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M35" s="7">
         <v>4233</v>
@@ -7639,13 +7621,13 @@
         <v>4479398</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7642,13 @@
         <v>343595</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>452</v>
+        <v>289</v>
       </c>
       <c r="H36" s="7">
         <v>293</v>
@@ -7675,13 +7657,13 @@
         <v>297688</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M36" s="7">
         <v>606</v>
@@ -7690,13 +7672,13 @@
         <v>641283</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7693,13 @@
         <v>304222</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -7726,13 +7708,13 @@
         <v>222067</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>189</v>
+        <v>454</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="M37" s="7">
         <v>505</v>
@@ -7744,10 +7726,10 @@
         <v>75</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7744,13 @@
         <v>774505</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>458</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H38" s="7">
         <v>501</v>
@@ -7777,13 +7759,13 @@
         <v>517416</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M38" s="7">
         <v>1225</v>
@@ -7792,13 +7774,13 @@
         <v>1291921</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,7 +7857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111F78A-AB0A-44BA-B342-891C4BDF3B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB97107D-1F15-4F6F-AC49-462F0CF8634D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7892,7 +7874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8002,7 +7984,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -8017,7 +7999,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -8032,7 +8014,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -8056,7 +8038,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8071,7 +8053,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8086,7 +8068,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8089,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8122,7 +8104,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8137,7 +8119,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,7 +8140,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8173,7 +8155,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8188,7 +8170,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,7 +8191,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8224,7 +8206,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8239,7 +8221,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,7 +8292,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -8340,7 +8322,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -8364,7 +8346,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8394,7 +8376,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,7 +8397,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8445,7 +8427,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8496,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8499,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8547,7 +8529,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,7 +8600,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -8633,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -8648,7 +8630,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -8687,7 +8669,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8702,7 +8684,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8738,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8753,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,7 +8771,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8804,7 +8786,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,7 +8822,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8855,7 +8837,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,7 +8923,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -8995,7 +8977,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9046,7 +9028,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9097,7 +9079,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9148,7 +9130,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9249,7 +9231,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -9264,7 +9246,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -9303,7 +9285,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9318,7 +9300,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,7 +9336,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9369,7 +9351,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9405,7 +9387,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9420,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,7 +9438,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9471,7 +9453,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,7 +9539,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -9566,13 +9548,13 @@
         <v>8743</v>
       </c>
       <c r="N34" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -9611,7 +9593,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9626,7 +9608,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,7 +9644,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9677,7 +9659,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,7 +9695,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9728,7 +9710,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,7 +9746,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9779,7 +9761,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,7 +9803,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
